--- a/metadata/cedar-histology/todo/Stanford TMC (Histology).xlsx
+++ b/metadata/cedar-histology/todo/Stanford TMC (Histology).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$281</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,14 +429,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>NanoZoomer S210</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>Left-and-up</t>
@@ -444,15 +444,10 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Modified progressive staining</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -461,14 +456,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Right-and-up</t>
@@ -476,63 +471,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Row-by-row</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sublimator</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Row-by-row</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sublimator</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Progressive staining</t>
+          <t>Column-by-column</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Column-by-column</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Left-and-down</t>
@@ -540,160 +515,120 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regressive staining</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Snake-by-rows</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chromium Controller</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Right-and-down</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Snake-by-columns</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Custom</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>NanoZoomer S360</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>NanoZoomer S60</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Chromium X</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ionpath</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>AutoStainer XL</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Visium CytAssist</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SunChrom</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>SunCollect Sprayer</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>M3+ Sprayer</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Discovery Ultra</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>ST5020 Multistainer</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Chromium iX</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Chromium Connect</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>M5 Sprayer</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -710,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,10 +688,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -772,7 +711,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -810,7 +749,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -829,7 +768,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -843,19 +782,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM223.JLJG.453</t>
+          <t>HBM234.VPWQ.726</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM223.JLJG.453</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.VPWQ.726</t>
         </is>
       </c>
     </row>
@@ -886,7 +829,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -905,7 +848,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -924,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -938,38 +881,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM234.VPWQ.726</t>
+          <t>HBM239.ZMMV.556</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.VPWQ.726</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM239.ZMMV.556</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM234.VPWQ.726</t>
+          <t>HBM239.ZMMV.556</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.VPWQ.726</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM239.ZMMV.556</t>
         </is>
       </c>
     </row>
@@ -981,7 +928,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1000,7 +947,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1019,7 +966,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1033,57 +980,61 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM239.ZMMV.556</t>
+          <t>HBM258.NNHS.392</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.ZMMV.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM239.ZMMV.556</t>
+          <t>HBM258.NNHS.392</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.ZMMV.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM239.ZMMV.556</t>
+          <t>HBM258.NNHS.392</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.ZMMV.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1046,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1114,7 +1065,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1128,76 +1079,80 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM258.NNHS.392</t>
+          <t>HBM282.KJSW.296</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM258.NNHS.392</t>
+          <t>HBM282.KJSW.296</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM258.NNHS.392</t>
+          <t>HBM282.KJSW.296</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM258.NNHS.392</t>
+          <t>HBM282.KJSW.296</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.NNHS.392</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1164,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1223,64 +1178,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM282.KJSW.296</t>
+          <t>HBM284.RVLB.496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM282.KJSW.296</t>
+          <t>HBM284.RVLB.496</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM282.KJSW.296</t>
+          <t>HBM284.RVLB.496</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM282.KJSW.296</t>
+          <t>HBM284.RVLB.496</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1292,14 +1251,14 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM282.KJSW.296</t>
+          <t>HBM284.RVLB.496</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1311,52 +1270,56 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM282.KJSW.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM287.GHTV.496</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM287.GHTV.496</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM287.GHTV.496</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1368,71 +1331,75 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM287.GHTV.496</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM287.GHTV.496</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM284.RVLB.496</t>
+          <t>HBM293.SHKZ.697</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM284.RVLB.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM293.SHKZ.697</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1444,413 +1411,429 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM293.SHKZ.697</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM293.SHKZ.697</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM293.SHKZ.697</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM329.DVLL.824</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM287.GHTV.496</t>
+          <t>HBM329.DVLL.824</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM287.GHTV.496</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM329.DVLL.824</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM329.DVLL.824</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM329.DVLL.824</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM348.QZRB.438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM348.QZRB.438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM293.SHKZ.697</t>
+          <t>HBM348.QZRB.438</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.SHKZ.697</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM348.QZRB.438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM348.QZRB.438</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM352.RVLT.294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM352.RVLT.294</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM352.RVLT.294</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM329.DVLL.824</t>
+          <t>HBM352.RVLT.294</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.DVLL.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM352.RVLT.294</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM354.CLWV.743</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM354.CLWV.743</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM354.CLWV.743</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM354.CLWV.743</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1862,14 +1845,14 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM348.QZRB.438</t>
+          <t>HBM354.CLWV.743</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1881,52 +1864,56 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.QZRB.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM363.TMXW.364</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM363.TMXW.364</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM363.TMXW.364</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1938,71 +1925,75 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM363.TMXW.364</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM363.TMXW.364</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM352.RVLT.294</t>
+          <t>HBM369.GXKB.469</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.RVLT.294</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM369.GXKB.469</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2014,413 +2005,429 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM369.GXKB.469</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM369.GXKB.469</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM369.GXKB.469</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM377.QRQB.756</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM354.CLWV.743</t>
+          <t>HBM377.QRQB.756</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.CLWV.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM377.QRQB.756</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM377.QRQB.756</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM377.QRQB.756</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM432.DGFJ.894</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM432.DGFJ.894</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM363.TMXW.364</t>
+          <t>HBM432.DGFJ.894</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMXW.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM432.DGFJ.894</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM432.DGFJ.894</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM433.HNSG.424</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM433.HNSG.424</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM433.HNSG.424</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM369.GXKB.469</t>
+          <t>HBM433.HNSG.424</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM369.GXKB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM433.HNSG.424</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM442.BSXP.292</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM442.BSXP.292</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM442.BSXP.292</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM442.BSXP.292</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2432,14 +2439,14 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM377.QRQB.756</t>
+          <t>HBM442.BSXP.292</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2451,52 +2458,56 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.QRQB.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM455.DQXC.869</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM455.DQXC.869</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM455.DQXC.869</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2508,71 +2519,75 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM455.DQXC.869</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM455.DQXC.869</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM432.DGFJ.894</t>
+          <t>HBM458.SXBD.528</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM432.DGFJ.894</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM458.SXBD.528</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2584,413 +2599,429 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM458.SXBD.528</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM458.SXBD.528</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM458.SXBD.528</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM459.NXMV.864</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM433.HNSG.424</t>
+          <t>HBM459.NXMV.864</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM433.HNSG.424</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM459.NXMV.864</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM459.NXMV.864</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM459.NXMV.864</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM468.MSNF.488</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM468.MSNF.488</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM442.BSXP.292</t>
+          <t>HBM468.MSNF.488</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.BSXP.292</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM468.MSNF.488</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM468.MSNF.488</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM497.XXNW.493</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM497.XXNW.493</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM497.XXNW.493</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM455.DQXC.869</t>
+          <t>HBM497.XXNW.493</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM455.DQXC.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM497.XXNW.493</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM499.FFRG.246</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM499.FFRG.246</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM499.FFRG.246</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM499.FFRG.246</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3002,14 +3033,14 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM458.SXBD.528</t>
+          <t>HBM499.FFRG.246</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3021,52 +3052,56 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM458.SXBD.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM536.TFXK.432</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM536.TFXK.432</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM536.TFXK.432</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3078,71 +3113,75 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM536.TFXK.432</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM536.TFXK.432</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM459.NXMV.864</t>
+          <t>HBM543.RPDK.653</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.NXMV.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM543.RPDK.653</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3154,413 +3193,429 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM543.RPDK.653</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM543.RPDK.653</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM543.RPDK.653</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM545.CPHM.635</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM468.MSNF.488</t>
+          <t>HBM545.CPHM.635</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM468.MSNF.488</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM545.CPHM.635</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM545.CPHM.635</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM545.CPHM.635</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM556.FCXC.374</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM556.FCXC.374</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM497.XXNW.493</t>
+          <t>HBM556.FCXC.374</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM497.XXNW.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM556.FCXC.374</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM556.FCXC.374</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM557.XLRH.388</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM557.XLRH.388</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM557.XLRH.388</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM499.FFRG.246</t>
+          <t>HBM557.XLRH.388</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.FFRG.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM557.XLRH.388</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM574.SQCW.844</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM574.SQCW.844</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM574.SQCW.844</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM574.SQCW.844</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3572,14 +3627,14 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM536.TFXK.432</t>
+          <t>HBM574.SQCW.844</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3591,52 +3646,56 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM536.TFXK.432</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM579.LPXF.362</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM579.LPXF.362</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM579.LPXF.362</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3648,71 +3707,75 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM579.LPXF.362</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM579.LPXF.362</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM543.RPDK.653</t>
+          <t>HBM639.XTTG.979</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RPDK.653</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM639.XTTG.979</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3724,413 +3787,429 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM639.XTTG.979</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM639.XTTG.979</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM639.XTTG.979</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM642.LCZP.426</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM545.CPHM.635</t>
+          <t>HBM642.LCZP.426</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.CPHM.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM642.LCZP.426</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM642.LCZP.426</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM642.LCZP.426</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM656.GHJC.825</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM656.GHJC.825</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HBM556.FCXC.374</t>
+          <t>HBM656.GHJC.825</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.FCXC.374</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM656.GHJC.825</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM656.GHJC.825</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM668.QXCW.968</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM668.QXCW.968</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM668.QXCW.968</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HBM557.XLRH.388</t>
+          <t>HBM668.QXCW.968</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM557.XLRH.388</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM668.QXCW.968</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM693.VGQG.275</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM693.VGQG.275</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM693.VGQG.275</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM693.VGQG.275</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4142,14 +4221,14 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HBM574.SQCW.844</t>
+          <t>HBM693.VGQG.275</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4161,52 +4240,56 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.SQCW.844</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM726.DSKB.293</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM726.DSKB.293</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM726.DSKB.293</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4218,71 +4301,75 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM726.DSKB.293</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM726.DSKB.293</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HBM579.LPXF.362</t>
+          <t>HBM737.WJPM.259</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM579.LPXF.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM737.WJPM.259</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4294,413 +4381,429 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM737.WJPM.259</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM737.WJPM.259</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM737.WJPM.259</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM775.NRRC.689</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HBM639.XTTG.979</t>
+          <t>HBM775.NRRC.689</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.XTTG.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM775.NRRC.689</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM775.NRRC.689</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM775.NRRC.689</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM793.KBHR.474</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM793.KBHR.474</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HBM642.LCZP.426</t>
+          <t>HBM793.KBHR.474</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM642.LCZP.426</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM793.KBHR.474</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM793.KBHR.474</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM832.KTWN.492</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM832.KTWN.492</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM832.KTWN.492</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HBM656.GHJC.825</t>
+          <t>HBM832.KTWN.492</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.GHJC.825</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM832.KTWN.492</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM836.CLMN.222</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM836.CLMN.222</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM836.CLMN.222</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM836.CLMN.222</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4712,14 +4815,14 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HBM668.QXCW.968</t>
+          <t>HBM836.CLMN.222</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4731,52 +4834,56 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QXCW.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM852.MLJT.759</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM852.MLJT.759</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM852.MLJT.759</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4788,71 +4895,75 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM852.MLJT.759</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM852.MLJT.759</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HBM693.VGQG.275</t>
+          <t>HBM855.HTCX.566</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.VGQG.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM855.HTCX.566</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4864,413 +4975,429 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM855.HTCX.566</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM855.HTCX.566</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM855.HTCX.566</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM863.BSPG.254</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HBM726.DSKB.293</t>
+          <t>HBM863.BSPG.254</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DSKB.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM863.BSPG.254</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM863.BSPG.254</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM863.BSPG.254</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM875.HFPV.296</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM875.HFPV.296</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HBM737.WJPM.259</t>
+          <t>HBM875.HFPV.296</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM737.WJPM.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM875.HFPV.296</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM875.HFPV.296</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM877.FJQB.624</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM877.FJQB.624</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM877.FJQB.624</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>HBM775.NRRC.689</t>
+          <t>HBM877.FJQB.624</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.NRRC.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM877.FJQB.624</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM886.SLWT.359</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM886.SLWT.359</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM886.SLWT.359</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM886.SLWT.359</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5282,14 +5409,14 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HBM793.KBHR.474</t>
+          <t>HBM886.SLWT.359</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5301,52 +5428,56 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KBHR.474</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM898.QQRK.339</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM898.QQRK.339</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM898.QQRK.339</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5358,71 +5489,75 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM898.QQRK.339</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM898.QQRK.339</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HBM832.KTWN.492</t>
+          <t>HBM943.KNBG.869</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.KTWN.492</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM943.KNBG.869</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5434,413 +5569,429 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM943.KNBG.869</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM943.KNBG.869</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM943.KNBG.869</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM949.WHSQ.595</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HBM836.CLMN.222</t>
+          <t>HBM949.WHSQ.595</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.CLMN.222</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM949.WHSQ.595</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM949.WHSQ.595</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM949.WHSQ.595</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM953.MPGH.969</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM953.MPGH.969</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>HBM852.MLJT.759</t>
+          <t>HBM953.MPGH.969</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.MLJT.759</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.MPGH.969</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.MPGH.969</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.RPWZ.354</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.RPWZ.354</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.RPWZ.354</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HBM855.HTCX.566</t>
+          <t>HBM953.RPWZ.354</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM855.HTCX.566</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM953.RPWZ.354</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM958.BSRD.754</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM958.BSRD.754</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM958.BSRD.754</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM958.BSRD.754</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5852,14 +6003,14 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>HBM863.BSPG.254</t>
+          <t>HBM958.BSRD.754</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5871,52 +6022,56 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.BSPG.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM963.LMFW.393</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM963.LMFW.393</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM963.LMFW.393</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5928,71 +6083,75 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM963.LMFW.393</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM963.LMFW.393</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HBM875.HFPV.296</t>
+          <t>HBM974.CRTF.898</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.HFPV.296</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HBM877.FJQB.624</t>
+          <t>HBM974.CRTF.898</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6004,1151 +6163,84 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HBM877.FJQB.624</t>
+          <t>HBM974.CRTF.898</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HBM877.FJQB.624</t>
+          <t>HBM974.CRTF.898</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HBM877.FJQB.624</t>
+          <t>HBM974.CRTF.898</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>stain_technique</t>
+          <t>time_since_acquisition_instrument_calibration_unit</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>HBM877.FJQB.624</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>HBM877.FJQB.624</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.FJQB.624</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>HBM886.SLWT.359</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.SLWT.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>HBM898.QQRK.339</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.QQRK.339</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>HBM943.KNBG.869</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.KNBG.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>HBM949.WHSQ.595</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.WHSQ.595</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>HBM953.MPGH.969</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.MPGH.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>HBM953.RPWZ.354</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM953.RPWZ.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>HBM958.BSRD.754</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.BSRD.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>HBM963.LMFW.393</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.LMFW.393</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
         </is>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr"/>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>stain_technique</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr"/>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>tile_configuration</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr"/>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>HBM974.CRTF.898</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>time_since_acquisition_instrument_calibration_unit</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.CRTF.898</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E337"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D8 D14 D20 D26 D32 D38 D44 D50 D56 D62 D68 D74 D80 D86 D92 D98 D104 D110 D116 D122 D128 D134 D140 D146 D152 D158 D164 D170 D176 D182 D188 D194 D200 D206 D212 D218 D224 D230 D236 D242 D248 D254 D260 D266 D272 D278 D284 D290 D296 D302 D308 D314 D320 D326 D332" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$19</formula1>
+  <autoFilter ref="A1:E281"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D7 D12 D17 D22 D27 D32 D37 D42 D47 D52 D57 D62 D67 D72 D77 D82 D87 D92 D97 D102 D107 D112 D117 D122 D127 D132 D137 D142 D147 D152 D157 D162 D167 D172 D177 D182 D187 D192 D197 D202 D207 D212 D217 D222 D227 D232 D237 D242 D247 D252 D257 D262 D267 D272 D277" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D9 D15 D21 D27 D33 D39 D45 D51 D57 D63 D69 D75 D81 D87 D93 D99 D105 D111 D117 D123 D129 D135 D141 D147 D153 D159 D165 D171 D177 D183 D189 D195 D201 D207 D213 D219 D225 D231 D237 D243 D249 D255 D261 D267 D273 D279 D285 D291 D297 D303 D309 D315 D321 D327 D333" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$11</formula1>
+    <dataValidation sqref="D3 D8 D13 D18 D23 D28 D33 D38 D43 D48 D53 D58 D63 D68 D73 D78 D83 D88 D93 D98 D103 D108 D113 D118 D123 D128 D133 D138 D143 D148 D153 D158 D163 D168 D173 D178 D183 D188 D193 D198 D203 D208 D213 D218 D223 D228 D233 D238 D243 D248 D253 D258 D263 D268 D273 D278" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$19</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D10 D16 D22 D28 D34 D40 D46 D52 D58 D64 D70 D76 D82 D88 D94 D100 D106 D112 D118 D124 D130 D136 D142 D148 D154 D160 D166 D172 D178 D184 D190 D196 D202 D208 D214 D220 D226 D232 D238 D244 D250 D256 D262 D268 D274 D280 D286 D292 D298 D304 D310 D316 D322 D328 D334" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D9 D14 D19 D24 D29 D34 D39 D44 D49 D54 D59 D64 D69 D74 D79 D84 D89 D94 D99 D104 D109 D114 D119 D124 D129 D134 D139 D144 D149 D154 D159 D164 D169 D174 D179 D184 D189 D194 D199 D204 D209 D214 D219 D224 D229 D234 D239 D244 D249 D254 D259 D264 D269 D274 D279" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D11 D17 D23 D29 D35 D41 D47 D53 D59 D65 D71 D77 D83 D89 D95 D101 D107 D113 D119 D125 D131 D137 D143 D149 D155 D161 D167 D173 D179 D185 D191 D197 D203 D209 D215 D221 D227 D233 D239 D245 D251 D257 D263 D269 D275 D281 D287 D293 D299 D305 D311 D317 D323 D329 D335" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$4</formula1>
+    <dataValidation sqref="D5 D10 D15 D20 D25 D30 D35 D40 D45 D50 D55 D60 D65 D70 D75 D80 D85 D90 D95 D100 D105 D110 D115 D120 D125 D130 D135 D140 D145 D150 D155 D160 D165 D170 D175 D180 D185 D190 D195 D200 D205 D210 D215 D220 D225 D230 D235 D240 D245 D250 D255 D260 D265 D270 D275 D280" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D12 D18 D24 D30 D36 D42 D48 D54 D60 D66 D72 D78 D84 D90 D96 D102 D108 D114 D120 D126 D132 D138 D144 D150 D156 D162 D168 D174 D180 D186 D192 D198 D204 D210 D216 D222 D228 D234 D240 D246 D252 D258 D264 D270 D276 D282 D288 D294 D300 D306 D312 D318 D324 D330 D336" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D13 D19 D25 D31 D37 D43 D49 D55 D61 D67 D73 D79 D85 D91 D97 D103 D109 D115 D121 D127 D133 D139 D145 D151 D157 D163 D169 D175 D181 D187 D193 D199 D205 D211 D217 D223 D229 D235 D241 D247 D253 D259 D265 D271 D277 D283 D289 D295 D301 D307 D313 D319 D325 D331 D337" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$3</formula1>
+    <dataValidation sqref="D6 D11 D16 D21 D26 D31 D36 D41 D46 D51 D56 D61 D66 D71 D76 D81 D86 D91 D96 D101 D106 D111 D116 D121 D126 D131 D136 D141 D146 D151 D156 D161 D166 D171 D176 D181 D186 D191 D196 D201 D206 D211 D216 D221 D226 D231 D236 D241 D246 D251 D256 D261 D266 D271 D276 D281" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
